--- a/TestData/TestData_JAVA.xlsx
+++ b/TestData/TestData_JAVA.xlsx
@@ -20,24 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">ICD_Test_15_2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">ICD_Test_15_202023</t>
   </si>
   <si>
     <t xml:space="preserve">ICD10</t>
   </si>
   <si>
-    <t xml:space="preserve">ICD_Name_15_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICD_Test_15_2021</t>
+    <t xml:space="preserve">ICD_Name_15_202023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICD_Test_15_202123</t>
   </si>
   <si>
     <t xml:space="preserve">ICD9</t>
   </si>
   <si>
-    <t xml:space="preserve">ICD_Name_15_2021</t>
+    <t xml:space="preserve">ICD_Name_15_202231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICD_Test_15_202124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICD_Name_15_202232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICD_Test_15_202125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICD_Name_15_202233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICD_Test_15_202126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICD_Name_15_202234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICD_Test_15_202127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICD_Name_15_202235</t>
   </si>
 </sst>
 </file>
@@ -134,15 +158,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -168,6 +192,50 @@
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
